--- a/splited_sound_with_noise/splited_sound_with_noisesplited_sound_with_noise .xlsx
+++ b/splited_sound_with_noise/splited_sound_with_noisesplited_sound_with_noise .xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 project\megacom\speech\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 project\megacom\speech\splited_sound_with_noise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4014EF-EC79-4BE3-A115-618E00978C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69256EB-9DCA-4FAA-9ABB-4832375C5A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="1920" windowWidth="13335" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="2610" windowWidth="13335" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="1926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="1930">
   <si>
     <t>audio</t>
   </si>
@@ -5811,6 +5811,18 @@
   </si>
   <si>
     <t xml:space="preserve">یه عدد دوتا سینه است تیکه نکردی درسته اره  </t>
+  </si>
+  <si>
+    <t>یه سوال کنید فردا از کشتارگاه ببینید اصن ده کیلو هس سفارش بدم یا نیس</t>
+  </si>
+  <si>
+    <t>نیم ساعت دیگه بنام زرندی لطفا</t>
+  </si>
+  <si>
+    <t>تقریبن یه یکو چارصد یکو پونصد   *</t>
+  </si>
+  <si>
+    <t>جان بله من هر موقع خودم تو تمیرگایم گفتم  تموم بشه میام زود میام</t>
   </si>
 </sst>
 </file>
@@ -6228,8 +6240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1843"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6856,6 +6868,9 @@
         <f>HYPERLINK("1739962432_13_SPK_1_20250215_v2.1739642412.2288835.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C52" s="1" t="s">
+        <v>1855</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
@@ -6865,6 +6880,9 @@
         <f>HYPERLINK("1739962597_15_SPK_0_20250215_v2.1739624662.2279909.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C53" s="1" t="s">
+        <v>1926</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
@@ -6958,6 +6976,9 @@
         <f>HYPERLINK("1739962360_7_SPK_1_20250216_v2.1739716378.2337553.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C61" s="1" t="s">
+        <v>1927</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
@@ -7023,9 +7044,12 @@
       <c r="A67" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="6" t="str">
+      <c r="B67" s="7" t="str">
         <f>HYPERLINK("1739962197_4_SPK_0_20250215_v2.1739615161.2265876.wav", "Play Audio")</f>
         <v>Play Audio</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>1928</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -7108,6 +7132,9 @@
         <f>HYPERLINK("1739962797_5_SPK_0_20250215_v2.1739636853.2285938.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C74" s="1" t="s">
+        <v>1855</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
@@ -7140,6 +7167,9 @@
       <c r="B77" s="7" t="str">
         <f>HYPERLINK("1739962691_0_SPK_0_20250218_v2.1739866544.2434478.wav", "Play Audio")</f>
         <v>Play Audio</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>1929</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -23095,8 +23125,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52:C1048576 C1">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="C2:C51">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -23106,8 +23136,14 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C51">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -23119,18 +23155,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C51">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C51">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="C52:C1048576 C1">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/splited_sound_with_noise/splited_sound_with_noisesplited_sound_with_noise .xlsx
+++ b/splited_sound_with_noise/splited_sound_with_noisesplited_sound_with_noise .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 project\megacom\speech\splited_sound_with_noise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69256EB-9DCA-4FAA-9ABB-4832375C5A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FDE9AD-A1B1-4D28-AC3E-3CD9D3C6CD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="2610" windowWidth="13335" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="1395" windowWidth="17700" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="1930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="1954">
   <si>
     <t>audio</t>
   </si>
@@ -5823,6 +5823,78 @@
   </si>
   <si>
     <t>جان بله من هر موقع خودم تو تمیرگایم گفتم  تموم بشه میام زود میام</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * اگه قسمت گردنش باشه اشکال نداره</t>
+  </si>
+  <si>
+    <t xml:space="preserve">به سجاد انتقال بده روز چند بارم زنگ زدم گوشیش جواب نداد </t>
+  </si>
+  <si>
+    <t xml:space="preserve">بعد یه مرغ کاملم تیکه شده هم میخاستم هشت تیکه </t>
+  </si>
+  <si>
+    <t>ساعت هشت شب یادداشت کردم براتون  بعد *</t>
+  </si>
+  <si>
+    <t>خب عع کوچیک ترین رونامون امروز کلا رونا درشت بوده کوچیک ترین رون  همون سه و هفصد هشصد هست در کمترین حالت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* میخاید اصن هرموقع حاظر شد بیاین ببرین </t>
+  </si>
+  <si>
+    <t>شنسه عع چیز به صورت استیکی برش خورده  عع شنسل عع بی خطه بدون استخونه و پوستشم گرفته شده دو کیلو اره شنسل</t>
+  </si>
+  <si>
+    <t>خ م دوازده دیگه دس شما درد نکنه ممنون خدافظ خدا</t>
+  </si>
+  <si>
+    <t>بله حاله شما خوبه خسته نباشید ممنونم سلامت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خیلی خب باشه پس منم پس  میام رون و سینه میگیرم اونجوری بهتره </t>
+  </si>
+  <si>
+    <t>چش یکو دویستش خب گوساله باشه هشصد گرمش گوسفندی باشه</t>
+  </si>
+  <si>
+    <t>در خدمتتون آقایی هستیم سلامت باشید ممنونم مرسی قربان شما  خدانگه دار * *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلام  سلام فقط یه ساعت میتونید اعلام کنید اگه نیومدید من بعدش بفروشم </t>
+  </si>
+  <si>
+    <t xml:space="preserve">نه با من همیشه میام خدمتتون رون رونی که میگیرم مایه قسمت ماهیچش رو </t>
+  </si>
+  <si>
+    <t xml:space="preserve">عع سلام جناب ترکمی خوبین حال شما خوبه قربونت مرسی </t>
+  </si>
+  <si>
+    <t>خیلی مچکرم ساعت یک خدمتتون میرسم من  در خدمتیم خدانگه دار</t>
+  </si>
+  <si>
+    <t>من نازام برام یه مغز رون خوب میچینی نگه داری</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مثلا بوقلمون چرخ کرده و نمیدونم اره </t>
+  </si>
+  <si>
+    <t xml:space="preserve">نه بالای دو کیلو نمیخاما یکو هشصد نه نه  یکو نهصد </t>
+  </si>
+  <si>
+    <t>شما فردا تشریف بیارید هر زمان که شقش کنم باهام مو با شما تماس میگیریم بیاین ببرین</t>
+  </si>
+  <si>
+    <t>پس اطلاع بدین ببخشین ما دنبه رو نمیتونیم بیایم ببریم سلامت باشین بازم ببخشین خواهش میکنم خدانگه دار شما</t>
+  </si>
+  <si>
+    <t>خب خب هشت عددش پوستشو باید دو تیکه بشه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سمت ظهر شلوغه الانم برقا قطعه واسه همون گفتم همون بیاید راحت تره </t>
+  </si>
+  <si>
+    <t xml:space="preserve">نه دیگه اون یدونه لازم نیس فقط یدونه برام ب ععم فاکتور کنید </t>
   </si>
 </sst>
 </file>
@@ -6240,15 +6312,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1843"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A228" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B236" sqref="B236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="67.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="56.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8401,6 +8473,9 @@
         <f>HYPERLINK("1739962300_5_SPK_0_20250215_v2.1739612952.2265166.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C210" s="1" t="s">
+        <v>1930</v>
+      </c>
       <c r="F210" t="s">
         <v>1853</v>
       </c>
@@ -8413,14 +8488,20 @@
         <f>HYPERLINK("1739962543_4_SPK_1_20250216_v2.1739698445.2310537.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C211" s="1" t="s">
+        <v>1855</v>
+      </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B212" s="6" t="str">
+      <c r="B212" s="7" t="str">
         <f>HYPERLINK("1739962352_6_SPK_1_20250213_v2.1739441507.2208843.wav", "Play Audio")</f>
         <v>Play Audio</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>1931</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -8431,6 +8512,9 @@
         <f>HYPERLINK("1739962948_10_SPK_1_20250217_v2.1739802175.2383421.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C213" s="1" t="s">
+        <v>1932</v>
+      </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
@@ -8440,23 +8524,32 @@
         <f>HYPERLINK("1739961624_12_SPK_1_20250213_v2.1739437852.2203015.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C214" s="1" t="s">
+        <v>1933</v>
+      </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B215" s="6" t="str">
+      <c r="B215" s="7" t="str">
         <f>HYPERLINK("1739962517_3_SPK_1_20250217_v2.1739793977.2374162.wav", "Play Audio")</f>
         <v>Play Audio</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>1934</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B216" s="6" t="str">
+      <c r="B216" s="7" t="str">
         <f>HYPERLINK("1739962675_3_SPK_1_20250218_v2.1739864093.2431257.wav", "Play Audio")</f>
         <v>Play Audio</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>1935</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -8467,6 +8560,9 @@
         <f>HYPERLINK("1739962326_3_SPK_1_20250215_v2.1739632205.2283760.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C217" s="1" t="s">
+        <v>1936</v>
+      </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
@@ -8476,6 +8572,9 @@
         <f>HYPERLINK("1739962832_0_SPK_0_20250216_v2.1739723024.2340422.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C218" s="1" t="s">
+        <v>1855</v>
+      </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
@@ -8485,6 +8584,9 @@
         <f>HYPERLINK("1739962624_4_SPK_1_20250216_v2.1739686481.2297600.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C219" s="1" t="s">
+        <v>1937</v>
+      </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
@@ -8494,14 +8596,20 @@
         <f>HYPERLINK("1739962276_0_SPK_1_20250217_v2.1739800568.2381656.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C220" s="1" t="s">
+        <v>1938</v>
+      </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B221" s="6" t="str">
+      <c r="B221" s="7" t="str">
         <f>HYPERLINK("1739962868_8_SPK_1_20250215_v2.1739614231.2265805.wav", "Play Audio")</f>
         <v>Play Audio</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>1939</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -8512,6 +8620,9 @@
         <f>HYPERLINK("1739962517_5_SPK_0_20250217_v2.1739793977.2374162.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C222" s="1" t="s">
+        <v>1940</v>
+      </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
@@ -8521,6 +8632,9 @@
         <f>HYPERLINK("1739962266_18_SPK_0_20250215_v2.1739600840.2256930.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C223" s="1" t="s">
+        <v>1941</v>
+      </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
@@ -8530,8 +8644,11 @@
         <f>HYPERLINK("1739962180_1_SPK_1_20250216_v2.1739702235.2316694.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C224" s="1" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>226</v>
       </c>
@@ -8539,17 +8656,23 @@
         <f>HYPERLINK("1739962998_9_SPK_0_20250216_v2.1739697766.2309766.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C225" s="1" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B226" s="6" t="str">
+      <c r="B226" s="7" t="str">
         <f>HYPERLINK("1739962486_5_SPK_1_20250215_v2.1739627574.2281608.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C226" s="1" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
         <v>228</v>
       </c>
@@ -8557,17 +8680,23 @@
         <f>HYPERLINK("1739962293_15_SPK_0_20250218_v2.1739858897.2424782.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C227" s="1" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B228" s="6" t="str">
+      <c r="B228" s="7" t="str">
         <f>HYPERLINK("1739961707_2_SPK_0_20250213_v2.1739437852.2203015.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C228" s="1" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
         <v>230</v>
       </c>
@@ -8575,8 +8704,11 @@
         <f>HYPERLINK("1739962861_32_SPK_1_20250216_v2.1739695895.2308017.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C229" s="1" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
         <v>231</v>
       </c>
@@ -8584,17 +8716,23 @@
         <f>HYPERLINK("1739962826_8_SPK_0_20250215_v2.1739596848.2256007.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C230" s="1" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B231" s="6" t="str">
+      <c r="B231" s="7" t="str">
         <f>HYPERLINK("1739962597_10_SPK_1_20250215_v2.1739624662.2279909.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C231" s="1" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>233</v>
       </c>
@@ -8602,8 +8740,11 @@
         <f>HYPERLINK("1739961708_3_SPK_0_20250213_v2.1739437852.2203015.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C232" s="1" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>234</v>
       </c>
@@ -8611,8 +8752,11 @@
         <f>HYPERLINK("1739962642_6_SPK_1_20250218_v2.1739864664.2432073.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C233" s="1" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>235</v>
       </c>
@@ -8620,8 +8764,11 @@
         <f>HYPERLINK("1739962161_16_SPK_0_20250215_v2.1739603840.2258967.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C234" s="1" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>236</v>
       </c>
@@ -8629,8 +8776,11 @@
         <f>HYPERLINK("1739962955_11_SPK_1_20250213_v2.1739439090.2205291.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C235" s="1" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>237</v>
       </c>
@@ -8639,7 +8789,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>238</v>
       </c>
@@ -8648,7 +8798,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>239</v>
       </c>
@@ -8657,7 +8807,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>240</v>
       </c>
@@ -8666,7 +8816,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>241</v>
       </c>

--- a/splited_sound_with_noise/splited_sound_with_noisesplited_sound_with_noise .xlsx
+++ b/splited_sound_with_noise/splited_sound_with_noisesplited_sound_with_noise .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0 project\megacom\speech\splited_sound_with_noise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FDE9AD-A1B1-4D28-AC3E-3CD9D3C6CD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BB090A-1BD9-4108-9ACC-539BF70BC59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="1395" windowWidth="17700" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="0" windowWidth="17970" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="1954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="1972">
   <si>
     <t>audio</t>
   </si>
@@ -5783,9 +5783,6 @@
     <t>ولی ساعتای دوازدهو نیم یک میاد حالا شما هر تایمی میخوایید تشریف بیارید به ما بگید که براتون بزارم کنار</t>
   </si>
   <si>
-    <t>اره هستش  مرغ هستش هم مرغ ساوانا داریم هم مرغ معمولی سفید گوشت</t>
-  </si>
-  <si>
     <t>جناب جسارتا چرخیمون پنج شنبه خراب شده</t>
   </si>
   <si>
@@ -5894,7 +5891,64 @@
     <t xml:space="preserve">سمت ظهر شلوغه الانم برقا قطعه واسه همون گفتم همون بیاید راحت تره </t>
   </si>
   <si>
-    <t xml:space="preserve">نه دیگه اون یدونه لازم نیس فقط یدونه برام ب ععم فاکتور کنید </t>
+    <t xml:space="preserve">نه دیگه اون یدونه لازم نیس فقط یدونه برام ب عم فاکتور کنید </t>
+  </si>
+  <si>
+    <t>سلام گوشت اطمینان بفرمایید الو خسته نباشین مچ عع ببخشید گوشت گوساله تازه براتون اومده</t>
+  </si>
+  <si>
+    <t xml:space="preserve">این اصن حواسش نیس الان پیام داده که خودت زنگ بزن بعد من برا شبم مهمون دارم میتونید لطف کنید  برا من سریع  برسونید </t>
+  </si>
+  <si>
+    <t>عع بزرگوار میگم سپید گوشت میخای یا ساوانا جسارتن</t>
+  </si>
+  <si>
+    <t>اره هستش  مرغ هستش هم مرغ ساوانا داریم هم مرغ معمولی سپید گوشت</t>
+  </si>
+  <si>
+    <t>آقای عباسی هستم خیلی خب میام خدمتتون میام خدمتتون ممنونم عزیزم ممنونم خدافظ</t>
+  </si>
+  <si>
+    <t>چون به حسنم گفتم حسن گفت زودتر بفرستین ما همینجا رد کنیم گفتم باش</t>
+  </si>
+  <si>
+    <t>دیگم بانک مسکن به نام آوا بتن روش نوشته جا نمونده اینجا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* میرم با بچه خام پایگاه قدیم میگم بفرستن براتون </t>
+  </si>
+  <si>
+    <t>سلامت باشین از گوشت اطمینان تماس گرفتم خدمتتون آه *</t>
+  </si>
+  <si>
+    <t>پس من دیگه نیام خودم اونجا دیگه بچه ها میارن واسم درسته</t>
+  </si>
+  <si>
+    <t>پس سه کیلو گوشت گوساله به اضافه یک کیلو گوشت قلوه گاه چرخ بشه برای من</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ما در خدمتتون هستیم فقط فامیل شریفتونو میگین </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلام برنامه شما چیه شما میگین که بعدا واریز میکنیم مبلغو جناب جان </t>
+  </si>
+  <si>
+    <t>کی بیام بیام عع فامیل شریفتون علیزاده</t>
+  </si>
+  <si>
+    <t>ممنون دستتون درد نکنه حتما سفارش بکنید به آقا سجاد حسین خانم حسین زاده زنگ زدن ممنون مرس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عع چهار قسمتشو پوستش کنده بشه سر بالا زده بشه </t>
+  </si>
+  <si>
+    <t>یدونه درشت هست حوس حول و حوش دو سه کلیویه مشکلی نداره اون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پس یک  سینه رو اسلایسی کنید حالت شنسلی لطف کنید بفرستید </t>
+  </si>
+  <si>
+    <t>ممنونم مرسی آقا مچکرم خواهش میکنم *</t>
   </si>
 </sst>
 </file>
@@ -6312,13 +6366,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1843"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B236" sqref="B236"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B254" sqref="B254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="6" customWidth="1"/>
     <col min="3" max="3" width="56.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="2" customWidth="1"/>
@@ -6593,7 +6647,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -6605,7 +6659,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -6689,7 +6743,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -6821,7 +6875,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -6833,7 +6887,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -6869,7 +6923,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -6905,7 +6959,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -6929,7 +6983,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -6953,7 +7007,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -7049,7 +7103,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -7121,7 +7175,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -7224,12 +7278,12 @@
       <c r="A76" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="6" t="str">
+      <c r="B76" s="7" t="str">
         <f>HYPERLINK("1739962981_1_SPK_1_20250215_v2.1739611404.2264001.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>1916</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -7241,7 +7295,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -7253,7 +7307,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -8474,7 +8528,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="F210" t="s">
         <v>1853</v>
@@ -8501,7 +8555,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -8513,7 +8567,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -8525,7 +8579,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -8537,7 +8591,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -8549,7 +8603,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -8561,7 +8615,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -8585,7 +8639,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -8597,7 +8651,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -8609,7 +8663,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -8621,7 +8675,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -8633,7 +8687,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -8645,7 +8699,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -8657,7 +8711,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -8669,7 +8723,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -8681,7 +8735,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -8693,7 +8747,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -8705,7 +8759,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -8717,7 +8771,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -8729,7 +8783,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -8741,7 +8795,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -8753,7 +8807,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -8765,7 +8819,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -8777,7 +8831,7 @@
         <v>Play Audio</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -8788,6 +8842,9 @@
         <f>HYPERLINK("1739962225_0_SPK_0_20250215_v2.1739605153.2259762.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C236" s="1" t="s">
+        <v>1953</v>
+      </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
@@ -8797,6 +8854,9 @@
         <f>HYPERLINK("1739962503_3_SPK_1_20250215_v2.1739623381.2279172.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C237" s="1" t="s">
+        <v>1954</v>
+      </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
@@ -8806,6 +8866,9 @@
         <f>HYPERLINK("1739962144_2_SPK_1_20250215_v2.1739639895.2287671.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C238" s="1" t="s">
+        <v>1955</v>
+      </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
@@ -8815,6 +8878,9 @@
         <f>HYPERLINK("1739962494_11_SPK_1_20250217_v2.1739780189.2355491.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
+      <c r="C239" s="1" t="s">
+        <v>1957</v>
+      </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
@@ -8824,8 +8890,11 @@
         <f>HYPERLINK("1739962352_5_SPK_1_20250213_v2.1739441507.2208843.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C240" s="1" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
         <v>242</v>
       </c>
@@ -8833,17 +8902,23 @@
         <f>HYPERLINK("1739962506_1_SPK_0_20250217_v2.1739783593.2360418.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C241" s="1" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B242" s="6" t="str">
+      <c r="B242" s="7" t="str">
         <f>HYPERLINK("1739962178_2_SPK_1_20250216_v2.1739711527.2334263.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C242" s="1" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>244</v>
       </c>
@@ -8851,17 +8926,23 @@
         <f>HYPERLINK("1739962753_0_SPK_1_20250217_v2.1739783930.2360950.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C243" s="1" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B244" s="6" t="str">
+      <c r="B244" s="7" t="str">
         <f>HYPERLINK("1739962561_2_SPK_0_20250217_v2.1739786281.2364487.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C244" s="1" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
         <v>246</v>
       </c>
@@ -8869,8 +8950,11 @@
         <f>HYPERLINK("1739962586_9_SPK_1_20250215_v2.1739597847.2256179.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C245" s="1" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>247</v>
       </c>
@@ -8878,8 +8962,11 @@
         <f>HYPERLINK("1739962536_7_SPK_0_20250216_v2.1739710362.2333425.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C246" s="1" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
         <v>248</v>
       </c>
@@ -8887,8 +8974,11 @@
         <f>HYPERLINK("1739962339_7_SPK_1_20250215_v2.1739624893.2280045.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C247" s="1" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>249</v>
       </c>
@@ -8896,8 +8986,11 @@
         <f>HYPERLINK("1739962326_4_SPK_1_20250215_v2.1739632205.2283760.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C248" s="1" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>250</v>
       </c>
@@ -8905,8 +8998,11 @@
         <f>HYPERLINK("1739962955_18_SPK_1_20250213_v2.1739439090.2205291.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C249" s="1" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>251</v>
       </c>
@@ -8914,8 +9010,11 @@
         <f>HYPERLINK("1739962586_8_SPK_1_20250215_v2.1739597847.2256179.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C250" s="1" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>252</v>
       </c>
@@ -8923,8 +9022,11 @@
         <f>HYPERLINK("1739961698_4_SPK_0_20250213_v2.1739437852.2203015.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C251" s="1" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>253</v>
       </c>
@@ -8932,8 +9034,11 @@
         <f>HYPERLINK("1739962961_5_SPK_0_20250217_v2.1739810168.2391982.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C252" s="1" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
         <v>254</v>
       </c>
@@ -8941,8 +9046,11 @@
         <f>HYPERLINK("1739962788_15_SPK_1_20250215_v2.1739638233.2286618.wav", "Play Audio")</f>
         <v>Play Audio</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C253" s="1" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
         <v>255</v>
       </c>
@@ -8951,7 +9059,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
         <v>256</v>
       </c>
@@ -8960,7 +9068,7 @@
         <v>Play Audio</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
         <v>257</v>
       </c>
